--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -24,16 +24,7 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
-  </si>
-  <si>
-    <t>Сумма оплаты</t>
   </si>
   <si>
     <t>Дата оплаты</t>
@@ -45,10 +36,16 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
   </si>
   <si>
-    <t>нет данных</t>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
@@ -56,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -132,13 +129,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -147,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -160,19 +155,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,12 +164,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -507,208 +493,249 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43457</v>
+        <v>43641</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>3364</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>3745</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>1042</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43488</v>
+        <v>43663</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3414</v>
+        <v>3888</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>50</v>
-      </c>
-      <c r="E4" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
+        <v>143</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
+        <v>642.07000000000005</v>
+      </c>
+      <c r="G4" s="12">
+        <f>SUM(F4,F5)</f>
+        <v>792.73</v>
+      </c>
+      <c r="H4" s="12">
+        <v>801.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1068</v>
+        <v>1273</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150.66</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43593</v>
+        <v>43732</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3439</v>
+        <v>3992</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E6" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>114.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>466.96000000000004</v>
+      </c>
+      <c r="G6" s="12">
+        <f>SUM(F6,F7)</f>
+        <v>627.34</v>
+      </c>
+      <c r="H6" s="12">
+        <v>633.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1072</v>
+        <v>1339</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="6">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160.38000000000002</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43593</v>
+        <v>43781</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3577</v>
+        <v>4087</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="E8" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
+        <v>95</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>630.66000000000008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>426.55</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(F8,F9)</f>
+        <v>533.47</v>
+      </c>
+      <c r="H8" s="12">
+        <v>572.41999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1124</v>
+        <v>1383</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
+        <v>44</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>124.28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>106.92</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43641</v>
+        <v>43803</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>3745</v>
+        <v>4155</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
-        <v>168</v>
-      </c>
-      <c r="E10" s="12">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>767.76</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>305.32</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(F10,F11)</f>
+        <v>305.32</v>
+      </c>
+      <c r="H10" s="12">
+        <v>305.32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -717,40 +744,47 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1211</v>
+        <v>1383</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>87</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>207.93</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43663</v>
+        <v>43852</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>3888</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>143</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>4.49</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>642.07000000000005</v>
+      <c r="F12" s="10">
+        <v>445.89</v>
+      </c>
+      <c r="G12" s="12">
+        <f>SUM(F12,F13)</f>
+        <v>445.89</v>
+      </c>
+      <c r="H12" s="12">
+        <v>445.89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,226 +792,86 @@
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
-        <v>1273</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>62</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>150.66</v>
-      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
-        <v>8.9600000000000009</v>
+      <c r="A14" s="4">
+        <v>43901</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1650.13</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(F14,F15)</f>
+        <v>1650.13</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1650.13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43732</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3992</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C12</f>
-        <v>104</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>466.96000000000004</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1339</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C13</f>
-        <v>66</v>
-      </c>
-      <c r="E16" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>160.38000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43781</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4087</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C15</f>
-        <v>95</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>426.55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1383</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C16</f>
-        <v>44</v>
-      </c>
-      <c r="E19" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f>D19*E19</f>
-        <v>106.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15">
-        <v>38.950000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43803</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4155</v>
-      </c>
-      <c r="D21" s="3">
-        <f>C21-C18</f>
-        <v>68</v>
-      </c>
-      <c r="E21" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>305.32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1383</v>
-      </c>
-      <c r="D22" s="3">
-        <f>C22-C19</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F22" s="6">
-        <f>D22*E22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>43852</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="12">
-        <v>4.49</v>
-      </c>
-      <c r="F23" s="6">
-        <v>445.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="12">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12">
+        <f>SUM(G2:G15)</f>
+        <v>4354.88</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H2:H15)</f>
+        <v>4408.47</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <f>SUM(H16,-G16)</f>
+        <v>53.590000000000146</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F16" sqref="F12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,25 +851,70 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="4">
+        <v>43943</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4699</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="10">
+        <v>709.76</v>
+      </c>
       <c r="G16" s="12">
-        <f>SUM(G2:G15)</f>
-        <v>4354.88</v>
+        <f>SUM(F16,F17)</f>
+        <v>709.76</v>
       </c>
       <c r="H16" s="12">
-        <f>SUM(H2:H15)</f>
-        <v>4408.47</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+        <v>709.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1522</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12">
-        <f>SUM(H16,-G16)</f>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12">
+        <f>SUM(G2:G17)</f>
+        <v>5064.6400000000003</v>
+      </c>
+      <c r="H18" s="12">
+        <f>SUM(H2:H17)</f>
+        <v>5118.2300000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <f>SUM(H18,-G18)</f>
         <v>53.590000000000146</v>
       </c>
     </row>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F12:F16"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,26 +896,122 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>4699</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1580.12</v>
+      </c>
       <c r="G18" s="12">
-        <f>SUM(G2:G17)</f>
-        <v>5064.6400000000003</v>
+        <f>SUM(F18,F19)</f>
+        <v>1580.12</v>
       </c>
       <c r="H18" s="12">
-        <f>SUM(H2:H17)</f>
-        <v>5118.2300000000005</v>
+        <v>1580.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1522</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="10"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="12">
-        <f>SUM(H18,-G18)</f>
-        <v>53.590000000000146</v>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44011</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5251</v>
+      </c>
+      <c r="D20" s="8">
+        <f>SUM(C20,-C18)</f>
+        <v>552</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="10">
+        <f>PRODUCT(D20,E20)</f>
+        <v>2478.48</v>
+      </c>
+      <c r="G20" s="12">
+        <f>SUM(F20,F21)</f>
+        <v>2969.34</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1389.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1724</v>
+      </c>
+      <c r="D21" s="8">
+        <f>SUM(C21,-C19)</f>
+        <v>202</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="10">
+        <f>PRODUCT(D21,E21)</f>
+        <v>490.86</v>
+      </c>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12">
+        <f>SUM(G2:G21)</f>
+        <v>9614.1</v>
+      </c>
+      <c r="H22" s="12">
+        <f>SUM(H2:H21)</f>
+        <v>8087.5700000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12">
+        <f>SUM(H22,-G22)</f>
+        <v>-1526.5299999999997</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F11" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F15" si="1">D4*E4</f>
         <v>642.07000000000005</v>
       </c>
       <c r="G4" s="12">
@@ -768,20 +768,22 @@
         <v>0</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>4251</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <f t="shared" ref="D12:D15" si="2">SUM(C12,-C10)</f>
+        <v>96</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="10">
-        <v>445.89</v>
+        <f t="shared" si="1"/>
+        <v>431.04</v>
       </c>
       <c r="G12" s="12">
         <f>SUM(F12,F13)</f>
-        <v>445.89</v>
+        <v>438.33000000000004</v>
       </c>
       <c r="H12" s="12">
         <v>445.89</v>
@@ -793,15 +795,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <v>0</v>
+        <v>1386</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
+        <v>7.2900000000000009</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
@@ -813,20 +819,22 @@
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
+        <v>4542</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>291</v>
       </c>
       <c r="E14" s="3">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F14" s="10">
-        <v>1650.13</v>
+        <f t="shared" si="1"/>
+        <v>1329.8700000000001</v>
       </c>
       <c r="G14" s="12">
         <f>SUM(F14,F15)</f>
-        <v>1650.13</v>
+        <v>1655.4900000000002</v>
       </c>
       <c r="H14" s="12">
         <v>1650.13</v>
@@ -838,15 +846,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="8">
-        <v>0</v>
+        <v>1520</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>134</v>
       </c>
       <c r="E15" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
+        <v>325.62</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -861,10 +873,11 @@
         <v>4699</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <f t="shared" ref="D16:D19" si="3">SUM(C16,-C14)</f>
+        <v>157</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.57</v>
       </c>
       <c r="F16" s="10">
         <v>709.76</v>
@@ -886,7 +899,8 @@
         <v>1522</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E17" s="3">
         <v>2.4300000000000002</v>
@@ -903,10 +917,11 @@
         <v>0</v>
       </c>
       <c r="C18" s="8">
-        <v>4699</v>
+        <v>5006</v>
       </c>
       <c r="D18" s="8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>307</v>
       </c>
       <c r="E18" s="3">
         <v>4.49</v>
@@ -928,10 +943,11 @@
         <v>1</v>
       </c>
       <c r="C19" s="8">
-        <v>1522</v>
+        <v>1605</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>83</v>
       </c>
       <c r="E19" s="3">
         <v>2.4300000000000002</v>
@@ -952,18 +968,18 @@
       </c>
       <c r="D20" s="8">
         <f>SUM(C20,-C18)</f>
-        <v>552</v>
+        <v>245</v>
       </c>
       <c r="E20" s="3">
         <v>4.49</v>
       </c>
       <c r="F20" s="10">
         <f>PRODUCT(D20,E20)</f>
-        <v>2478.48</v>
+        <v>1100.05</v>
       </c>
       <c r="G20" s="12">
         <f>SUM(F20,F21)</f>
-        <v>2969.34</v>
+        <v>1389.22</v>
       </c>
       <c r="H20" s="12">
         <v>1389.22</v>
@@ -979,14 +995,14 @@
       </c>
       <c r="D21" s="8">
         <f>SUM(C21,-C19)</f>
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="10">
         <f>PRODUCT(D21,E21)</f>
-        <v>490.86</v>
+        <v>289.17</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1000,7 +1016,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="12">
         <f>SUM(G2:G21)</f>
-        <v>9614.1</v>
+        <v>8031.7800000000007</v>
       </c>
       <c r="H22" s="12">
         <f>SUM(H2:H21)</f>
@@ -1011,7 +1027,7 @@
       <c r="G23" s="12"/>
       <c r="H23" s="12">
         <f>SUM(H22,-G22)</f>
-        <v>-1526.5299999999997</v>
+        <v>55.789999999999964</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F17"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,26 +1008,77 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
+      <c r="A22" s="4">
+        <v>44061</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5446</v>
+      </c>
+      <c r="D22" s="8">
+        <f>SUM(C22,-C20)</f>
+        <v>195</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="10">
+        <f>PRODUCT(D22,E22)</f>
+        <v>918.45</v>
+      </c>
       <c r="G22" s="12">
-        <f>SUM(G2:G21)</f>
-        <v>8031.7800000000007</v>
+        <f>SUM(F22,F23)</f>
+        <v>1086.75</v>
       </c>
       <c r="H22" s="12">
-        <f>SUM(H2:H21)</f>
-        <v>8087.5700000000006</v>
+        <v>1098.45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1790</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(C23,-C21)</f>
+        <v>66</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="10">
+        <f>PRODUCT(D23,E23)</f>
+        <v>168.29999999999998</v>
+      </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f>SUM(H22,-G22)</f>
-        <v>55.789999999999964</v>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12">
+        <f>SUM(G2:G23)</f>
+        <v>9118.5300000000007</v>
+      </c>
+      <c r="H24" s="12">
+        <f>SUM(H2:H23)</f>
+        <v>9186.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="12"/>
+      <c r="H25" s="12">
+        <f>SUM(H24,-G24)</f>
+        <v>67.489999999999782</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,10 +479,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,26 +1059,79 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="4">
+        <v>44090</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>5624</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(C24,-C22)</f>
+        <v>178</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="10">
+        <f>PRODUCT(D24,E24)</f>
+        <v>838.38</v>
+      </c>
       <c r="G24" s="12">
-        <f>SUM(G2:G23)</f>
-        <v>9118.5300000000007</v>
+        <f>SUM(F24,F25)</f>
+        <v>1123.98</v>
       </c>
       <c r="H24" s="12">
-        <f>SUM(H2:H23)</f>
-        <v>9186.02</v>
+        <v>1123.98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <f>SUM(D29,-C23)</f>
+        <v>112</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="10">
+        <f>PRODUCT(D25,E25)</f>
+        <v>285.59999999999997</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12">
-        <f>SUM(H24,-G24)</f>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12">
+        <f>SUM(G2:G25)</f>
+        <v>10242.51</v>
+      </c>
+      <c r="H26" s="12">
+        <f>SUM(H2:H25)</f>
+        <v>10310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12">
+        <f>SUM(H26,-G26)</f>
         <v>67.489999999999782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="8">
+        <v>1902</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -142,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -170,8 +169,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,638 +502,667 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43641</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>3745</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1211</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43663</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>3888</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f t="shared" ref="D4:D11" si="0">C4-C2</f>
         <v>143</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4.49</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F15" si="1">D4*E4</f>
         <v>642.07000000000005</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
         <v>792.73</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="10">
         <v>801.69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1273</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>150.66</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43732</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
         <v>3992</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>4.49</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>466.96000000000004</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
         <v>627.34</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>633.02</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1339</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>160.38000000000002</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>43781</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
         <v>4087</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>4.49</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>426.55</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
         <v>533.47</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="10">
         <v>572.41999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1383</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>106.92</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>43803</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
         <v>4155</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>4.49</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>305.32</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <f>SUM(F10,F11)</f>
         <v>305.32</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>305.32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>1383</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>43852</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
         <v>4251</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" ref="D12:D15" si="2">SUM(C12,-C10)</f>
         <v>96</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>4.49</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <f t="shared" si="1"/>
         <v>431.04</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <f>SUM(F12,F13)</f>
         <v>438.33000000000004</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>445.89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>1386</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>7.2900000000000009</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>43901</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
         <v>4542</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="2"/>
         <v>291</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>4.57</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <f t="shared" si="1"/>
         <v>1329.8700000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f>SUM(F14,F15)</f>
         <v>1655.4900000000002</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="10">
         <v>1650.13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>1520</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="1"/>
         <v>325.62</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>43943</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>4699</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <f t="shared" ref="D16:D19" si="3">SUM(C16,-C14)</f>
         <v>157</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4.57</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>709.76</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f>SUM(F16,F17)</f>
         <v>709.76</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="10">
         <v>709.76</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>1522</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>43992</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
         <v>5006</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f t="shared" si="3"/>
         <v>307</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>4.49</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>1580.12</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <f>SUM(F18,F19)</f>
         <v>1580.12</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="10">
         <v>1580.12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>1605</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>44011</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>5251</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <f>SUM(C20,-C18)</f>
         <v>245</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>4.49</v>
       </c>
-      <c r="F20" s="10">
-        <f>PRODUCT(D20,E20)</f>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F25" si="4">PRODUCT(D20,E20)</f>
         <v>1100.05</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="10">
         <f>SUM(F20,F21)</f>
         <v>1389.22</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="10">
         <v>1389.22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>1724</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <f>SUM(C21,-C19)</f>
         <v>119</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F21" s="10">
-        <f>PRODUCT(D21,E21)</f>
+      <c r="F21" s="9">
+        <f t="shared" si="4"/>
         <v>289.17</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>44061</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
         <v>5446</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <f>SUM(C22,-C20)</f>
         <v>195</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>4.71</v>
       </c>
-      <c r="F22" s="10">
-        <f>PRODUCT(D22,E22)</f>
+      <c r="F22" s="9">
+        <f t="shared" si="4"/>
         <v>918.45</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="10">
         <f>SUM(F22,F23)</f>
         <v>1086.75</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="10">
         <v>1098.45</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <v>1790</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f>SUM(C23,-C21)</f>
         <v>66</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F23" s="10">
-        <f>PRODUCT(D23,E23)</f>
+      <c r="F23" s="9">
+        <f t="shared" si="4"/>
         <v>168.29999999999998</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>44090</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
         <v>5624</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>SUM(C24,-C22)</f>
         <v>178</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>4.71</v>
       </c>
-      <c r="F24" s="10">
-        <f>PRODUCT(D24,E24)</f>
+      <c r="F24" s="9">
+        <f t="shared" si="4"/>
         <v>838.38</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="10">
         <f>SUM(F24,F25)</f>
         <v>1123.98</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="10">
         <v>1123.98</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="8">
-        <f>SUM(D29,-C23)</f>
+      <c r="C25" s="11">
+        <v>1902</v>
+      </c>
+      <c r="D25" s="7">
+        <f>SUM(C25,-C23)</f>
         <v>112</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F25" s="10">
-        <f>PRODUCT(D25,E25)</f>
+      <c r="F25" s="9">
+        <f t="shared" si="4"/>
         <v>285.59999999999997</v>
       </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12">
-        <f>SUM(G2:G25)</f>
-        <v>10242.51</v>
-      </c>
-      <c r="H26" s="12">
-        <f>SUM(H2:H25)</f>
-        <v>10310</v>
+      <c r="A26" s="3">
+        <v>44120</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5769</v>
+      </c>
+      <c r="D26" s="7">
+        <f>SUM(C26,-C24)</f>
+        <v>145</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" ref="F26:F27" si="5">PRODUCT(D26,E26)</f>
+        <v>682.95</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>1042.5</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1042.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
-        <f>SUM(H26,-G26)</f>
-        <v>67.489999999999782</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2043</v>
+      </c>
+      <c r="D27" s="7">
+        <f>SUM(C27,-C25)</f>
+        <v>141</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="5"/>
+        <v>359.54999999999995</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="8">
-        <v>1902</v>
-      </c>
+      <c r="D29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -483,7 +483,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -968,14 +968,14 @@
         <v>5251</v>
       </c>
       <c r="D20" s="7">
-        <f>SUM(C20,-C18)</f>
+        <f t="shared" ref="D20:D29" si="4">SUM(C20,-C18)</f>
         <v>245</v>
       </c>
       <c r="E20" s="2">
         <v>4.49</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" ref="F20:F25" si="4">PRODUCT(D20,E20)</f>
+        <f t="shared" ref="F20:F25" si="5">PRODUCT(D20,E20)</f>
         <v>1100.05</v>
       </c>
       <c r="G20" s="10">
@@ -995,14 +995,14 @@
         <v>1724</v>
       </c>
       <c r="D21" s="7">
-        <f>SUM(C21,-C19)</f>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="E21" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>289.17</v>
       </c>
       <c r="G21" s="10"/>
@@ -1019,14 +1019,14 @@
         <v>5446</v>
       </c>
       <c r="D22" s="7">
-        <f>SUM(C22,-C20)</f>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="E22" s="2">
         <v>4.71</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>918.45</v>
       </c>
       <c r="G22" s="10">
@@ -1046,14 +1046,14 @@
         <v>1790</v>
       </c>
       <c r="D23" s="7">
-        <f>SUM(C23,-C21)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168.29999999999998</v>
       </c>
       <c r="G23" s="10"/>
@@ -1070,14 +1070,14 @@
         <v>5624</v>
       </c>
       <c r="D24" s="7">
-        <f>SUM(C24,-C22)</f>
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
       <c r="E24" s="2">
         <v>4.71</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>838.38</v>
       </c>
       <c r="G24" s="10">
@@ -1097,14 +1097,14 @@
         <v>1902</v>
       </c>
       <c r="D25" s="7">
-        <f>SUM(C25,-C23)</f>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="E25" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>285.59999999999997</v>
       </c>
       <c r="G25" s="10"/>
@@ -1121,14 +1121,14 @@
         <v>5769</v>
       </c>
       <c r="D26" s="7">
-        <f>SUM(C26,-C24)</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="E26" s="2">
         <v>4.71</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" ref="F26:F27" si="5">PRODUCT(D26,E26)</f>
+        <f t="shared" ref="F26:F27" si="6">PRODUCT(D26,E26)</f>
         <v>682.95</v>
       </c>
       <c r="G26" s="10">
@@ -1148,21 +1148,69 @@
         <v>2043</v>
       </c>
       <c r="D27" s="7">
-        <f>SUM(C27,-C25)</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="E27" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>359.54999999999995</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>44153</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6021</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F29" si="7">PRODUCT(D28,E28)</f>
+        <v>1186.92</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>1549.02</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1549.02</v>
+      </c>
+    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2185</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="7"/>
+        <v>362.09999999999997</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -698,6 +698,108 @@
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44257</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6280</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="5">SUM(C10,-C8)</f>
+        <v>143</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="6">PRODUCT(D10,E10)</f>
+        <v>673.53</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>877.53</v>
+      </c>
+      <c r="H10" s="9">
+        <v>877.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2322</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>44314</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6511</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="7">SUM(C12,-C10)</f>
+        <v>231</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="8">PRODUCT(D12,E12)</f>
+        <v>1088.01</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>1383.81</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1383.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2438</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>295.79999999999995</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -800,6 +800,57 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>44354</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6726</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="9">SUM(C14,-C12)</f>
+        <v>215</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="10">PRODUCT(D14,E14)</f>
+        <v>1012.65</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>1395.15</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1395.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2588</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="10"/>
+        <v>382.5</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -469,10 +469,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -851,6 +851,57 @@
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>44399</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>6726</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="11">SUM(C16,-C14)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="12">PRODUCT(D16,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1492.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2588</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -86,12 +86,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -134,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -162,6 +168,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +884,7 @@
         <f>SUM(F16,F17)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="11">
         <v>1492.48</v>
       </c>
     </row>
@@ -901,7 +908,58 @@
         <v>0</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44442</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>7165</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D19" si="13">SUM(C18,-C16)</f>
+        <v>439</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ref="F18:F19" si="14">PRODUCT(D18,E18)</f>
+        <v>2177.44</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(F18,F19)</f>
+        <v>2523.16</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1030.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2717</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="13"/>
+        <v>129</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="14"/>
+        <v>345.72</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -960,6 +960,57 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>44473</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>7325</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D21" si="15">SUM(C20,-C18)</f>
+        <v>160</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ref="F20:F21" si="16">PRODUCT(D20,E20)</f>
+        <v>793.6</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(F20,F21)</f>
+        <v>1128.5999999999999</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1116.0999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2842</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="15"/>
+        <v>125</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="16"/>
+        <v>335</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/132ee.xlsx
+++ b/sputnik/personal/ee/132ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -476,10 +476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H16:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1011,57 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>44530</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7499</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D23" si="17">SUM(C22,-C20)</f>
+        <v>174</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F23" si="18">PRODUCT(D22,E22)</f>
+        <v>863.04</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>1056</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1048.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2914</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="18"/>
+        <v>192.96</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
